--- a/biology/Botanique/Couma_guianensis/Couma_guianensis.xlsx
+++ b/biology/Botanique/Couma_guianensis/Couma_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Couma guianensis est une espèce d'arbres néotropical de la famille des Apocynaceae. C'est l'espèce type du genre Couma Aubl..
-Il est connu en Guyane sous les noms de Bois vache, Mapa, Coumé (Créole), Yuwa (Wayãpi, Teko), Ukum (Palikur), Sorva (Portugais)[3], Miliki udu, Bad wud (Aluku, Taki-taki)[4], Gan Mapa (nenge tongo), ou Coumier de la Guyane, Poirier de la Guyane[5], Poirier des Créoles (Exposition Coloniale[6])[7].
-Au Suriname, on l'appelle Péra (Sranan tongo, Arawak), Amaapa*, Amaa-parjan, Akoema (Kali'na), Mappa* (Nenge tongo), Dokalli* (Aluku) (*= noms partagés avec Ambelania sagotii et Parahancornia amapa)[8].
-Le monde anglophone le désigne comme Dukaballi (Démérara). Dans le monde hispanophone, il est nommé Gaimaro macho, Nicuyé, Vacahosea (Venezuela). Au Brésil, on l'appelle Sorveira, Sowa (Portugais)[5].
+Il est connu en Guyane sous les noms de Bois vache, Mapa, Coumé (Créole), Yuwa (Wayãpi, Teko), Ukum (Palikur), Sorva (Portugais), Miliki udu, Bad wud (Aluku, Taki-taki), Gan Mapa (nenge tongo), ou Coumier de la Guyane, Poirier de la Guyane, Poirier des Créoles (Exposition Coloniale).
+Au Suriname, on l'appelle Péra (Sranan tongo, Arawak), Amaapa*, Amaa-parjan, Akoema (Kali'na), Mappa* (Nenge tongo), Dokalli* (Aluku) (*= noms partagés avec Ambelania sagotii et Parahancornia amapa).
+Le monde anglophone le désigne comme Dukaballi (Démérara). Dans le monde hispanophone, il est nommé Gaimaro macho, Nicuyé, Vacahosea (Venezuela). Au Brésil, on l'appelle Sorveira, Sowa (Portugais).
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Couma guianensis est un grand arbre atteignant 20-25 m de haut (environ 7 m de haut dans les forêts de savanes). Son tronc cylindrique atteint 40 à 70 cm de DHP. La cime est peu importante et irrégulière. L'écorce, les tiges et toutes les parties contiennent un latex très abondant, épais, non vénéneux, se coagulant très vite. Le bois est doux, fibreux. L'écorce noire et écailleuse, régulièrement fissuré, verruqueuse, verdâtre, est fibreuse à l'état frais, devenant granuleuse en vieillissant, rugueuse et fendillée, formant un réticule régulier. Le flachis rouge, exsude un latex blanc abondant. Les jeunes rameaux sont bruns, trigones, devenant très rugueux et noirs. Il tend à produire une branche à l'aisselle de chaque feuille. 
 Les feuilles sont simples, entières, opposées au stade du semis, devenant rapidement verticillée par 3.
@@ -536,7 +550,7 @@
 Le fruit est une baie globuleuse, portée par un pédoncule long de 4 à 5 cm, mesurant environ 4 × 4 cm.
 Sa peau est fine, jaune, devenant rouge-roussâtre à maturité, est striée longitudinalement
 La pulpe comestible est douce.
-Il contient 4 à 5 graines ovales, aplaties, longues d'1 cm, dans une pulpe de même couleur que la peau[5],[7],[8],[9],[10].
+Il contient 4 à 5 graines ovales, aplaties, longues d'1 cm, dans une pulpe de même couleur que la peau.
 </t>
         </is>
       </c>
@@ -565,9 +579,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Couma guianensis est présent au Suriname, en Guyane et au nord du Brésil[7] jusqu'à l'est du Pérou[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Couma guianensis est présent au Suriname, en Guyane et au nord du Brésil jusqu'à l'est du Pérou.
 </t>
         </is>
       </c>
@@ -596,19 +612,19 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Couma guianensis est un grand arbre à feuillage caduque, commun des forêts anciennes et des vieilles forêts secondaires[3] de terre ferme (non inondées)[9].
-En Guyane, Couma guianensis fleurit avant de feuiller en août-septembre, et fructifie en (juillet-)[9]septembre-octobre[7] ou d'octobre à février[10].
-La chute des feuilles et la feuillaison de Couma guianensis ont été étudiées[11] : ces arbres défeuillent au moins une fois par an (avec 2 intervalles de 5 à 18 mois), et cela peut se produire à n'importe que mois de l'année.
-Le pollen de Couma guianensis a été décrit[12].
-On observe des inclusions minérales microscopiques dans le xylème de Couma guianensis[13]
-Couma guianensis aurait des propriétés allélopathiques et antifongiques[14].
-Couma guianensis est pollinisé par des Apidae[15], et disséminé notamment par les singes Tamarin à face nue de Martins[16].
-Couma guianensis produit une litière de composition variable[17].
-Couma guianensis est une des plantes hôtes de la larve de l'Arlequin de Cayenne Acrocinus longimanus (Linnaeus, 1758) (Cerambycidae)[18], de Hylettus coenobita (Erichson, 1847) (Cerambycidae)[19], de nématodes gallogènes Meloidogyne spp.[20], et de la mouche antillaise des fruits Anastrepha obliqua (Macquart, 1835)[21].
-Culture
-On multiplie Couma guianensis par graines[5]. Il rejette facilement de souche.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Couma guianensis est un grand arbre à feuillage caduque, commun des forêts anciennes et des vieilles forêts secondaires de terre ferme (non inondées).
+En Guyane, Couma guianensis fleurit avant de feuiller en août-septembre, et fructifie en (juillet-)septembre-octobre ou d'octobre à février.
+La chute des feuilles et la feuillaison de Couma guianensis ont été étudiées : ces arbres défeuillent au moins une fois par an (avec 2 intervalles de 5 à 18 mois), et cela peut se produire à n'importe que mois de l'année.
+Le pollen de Couma guianensis a été décrit.
+On observe des inclusions minérales microscopiques dans le xylème de Couma guianensis
+Couma guianensis aurait des propriétés allélopathiques et antifongiques.
+Couma guianensis est pollinisé par des Apidae, et disséminé notamment par les singes Tamarin à face nue de Martins.
+Couma guianensis produit une litière de composition variable.
+Couma guianensis est une des plantes hôtes de la larve de l'Arlequin de Cayenne Acrocinus longimanus (Linnaeus, 1758) (Cerambycidae), de Hylettus coenobita (Erichson, 1847) (Cerambycidae), de nématodes gallogènes Meloidogyne spp., et de la mouche antillaise des fruits Anastrepha obliqua (Macquart, 1835).
 </t>
         </is>
       </c>
@@ -634,23 +650,97 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On multiplie Couma guianensis par graines. Il rejette facilement de souche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Couma_guianensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couma_guianensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Couma guianensis est surtout réputé pour ses excellents fruits[22] : avant maturité, le fruit contient un latex âpre. Bien mûre, la pulpe est un peu pâteuse mais douce et de goût agréable, et peut être consommée crue[5]. 
-Les Créoles de Guyane considèrent son abondant latex blanc comme buvable et nourrissant[3]. Il peut être ajouté au thé ou au café à la place du lait[7]. 
-Le bois de Couma guianensis est « tendre » (comparativement aux essences guyanaises habituelles), de couleur claire, léger, homogène en couleur et en grain, avec des propriétés proches des résineux utilisés en Europe, et est peu exploité[23].
-Chez les Wayãpi, le latex blanc et doux est léché sur le tronc incisé pour soigner la diarrhée. Ils consomment le fruit après l'avoir battu (pour coaguler son abondant latex) : sa chair est également considérée comme antidiarrhéique (l'usage est similaire pour Ambelania acida)[3].
-Au Brésil, le latex de Couma guanensis était une marchandise prisée chez les Caboclos à l'époque du boom du marché du caoutchouc, mais elle n'a plus aucune valeur aujourd'hui[24].
-Ce latex, mélangé à l'huile de ricin, est utilisé comme anthelminthique et anti-dysentérique[7]. 
-Il serait par ailleurs dangereux pour les yeux, car il peut coller à la cornée[10]. 
-Il peut aussi entrer dans la composition de peinture à la chaux[25].
-Dans le genre Couma, plusieurs espèces sont employées sous le nom commercial de Cow tree dans l'industrie du chewing-gum[26].
-Chimie
-De la gomme tirée du latex de Couma guianensis, appelée « Goma de Mascar »[7], a été rapportée par Aublet au XVIIIe siècle et analysée par le Dr Rouelle :
-ANALYSE DE LA RÉSINE DU COUMIER, Par M. ROUELLE (1775)[1]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Couma guianensis est surtout réputé pour ses excellents fruits : avant maturité, le fruit contient un latex âpre. Bien mûre, la pulpe est un peu pâteuse mais douce et de goût agréable, et peut être consommée crue. 
+Les Créoles de Guyane considèrent son abondant latex blanc comme buvable et nourrissant. Il peut être ajouté au thé ou au café à la place du lait. 
+Le bois de Couma guianensis est « tendre » (comparativement aux essences guyanaises habituelles), de couleur claire, léger, homogène en couleur et en grain, avec des propriétés proches des résineux utilisés en Europe, et est peu exploité.
+Chez les Wayãpi, le latex blanc et doux est léché sur le tronc incisé pour soigner la diarrhée. Ils consomment le fruit après l'avoir battu (pour coaguler son abondant latex) : sa chair est également considérée comme antidiarrhéique (l'usage est similaire pour Ambelania acida).
+Au Brésil, le latex de Couma guanensis était une marchandise prisée chez les Caboclos à l'époque du boom du marché du caoutchouc, mais elle n'a plus aucune valeur aujourd'hui.
+Ce latex, mélangé à l'huile de ricin, est utilisé comme anthelminthique et anti-dysentérique. 
+Il serait par ailleurs dangereux pour les yeux, car il peut coller à la cornée. 
+Il peut aussi entrer dans la composition de peinture à la chaux.
+Dans le genre Couma, plusieurs espèces sont employées sous le nom commercial de Cow tree dans l'industrie du chewing-gum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Couma_guianensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couma_guianensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chimie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De la gomme tirée du latex de Couma guianensis, appelée « Goma de Mascar », a été rapportée par Aublet au XVIIIe siècle et analysée par le Dr Rouelle :
+ANALYSE DE LA RÉSINE DU COUMIER, Par M. ROUELLE (1775)
 « 1° Cette réſine eſt d'un gris blanchâtre, un peu plus colorée à l'extérieur, que dans l'intérieur. Elle eſt aſſez légère, peu compacte, s'écraſe facilement, nage ſur l'eau, &amp; ne reſſemble à aucune de nos réſines connues, ſoit intérieurement, ſoit extérieurement. 
 2° Quoiqu'elle ne ſoit pas abſolument dépourvue d'odeur, on ne peut cependant pas la regarder comme aromatique. 
 3° La ſeule ſubſtance à laquelle on peut la comparer, c'eſt l'ambre gris, dont elle diffère toutefois par ſon odeur, par ſa couleur, qui eſt un peu plus blanchâtre, &amp; par un peu plus de légèreté. 
@@ -681,38 +771,40 @@
 II, a des eſpèces dont la réſine a une odeur très-vive, très-pénétrante, qui porte à la tête &amp; qui incommode, tandis que dans d'autres, au contraire, l'odeur eſt douce &amp; très-fuave : en un mot, il y a a cet égard beaucoup de variétés, ainſi que pour la couleur qui eſt plus ou moins blanche, plus ou moins griſe, enfin plus ou moins noire, ſuivant l’âge &amp; l'eſpèce différente des individus ; en ſorte que ſi l’ambre gris doit véritablement ſon origine à quelqu'une des eſpèces de ce genre d'arbres, il ne fera pas des-lors difficile de trouver la ſource de l'ambre noir qui eſt plus mauvais, &amp; que Geoffroy prétend n'être tel, qu’à cauſe de la vaſe dont il eſt imprègné, ou avec laquelle il a été allongé. 
 Geoffroy nous a donné une analyſe de l'ambre gris. Il a trouvé qu'en le traitant par l'eſprit- de-yin, il y avoit une matière noire &amp; tenace comme de la poix, qui étoit infoluble dans ce menſtrue. Il a obſervé le depôt blanc qui ſe précipite par le refroidiſſement &amp; le repos, &amp; qui, en ſe deſſéchant, prend une apparence de terre foliée brillante, aſſez ſemblable au blanc de Baleine. 
 Par la diſtillation, l'ambre gris lui a donné d'abord un phlegme inſipide, un eſprit acide, une huile jaune très odorante, avec une petite portion de ſel acide volatil aſſez ſemblable à celui du ſuccin. Ce qui reſte dans la cornue eſt, dit-il, une matière noire luiſante &amp; bitumineuſe ; mais il paroit qu'à cet égard M. Geoffroy n'a pas pouſſé la diſtillation juſqu'à la fin. »
-— M. ROUELLE (1703-1770), 1775[1].
+— M. ROUELLE (1703-1770), 1775.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Couma_guianensis</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Couma_guianensis</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[1] : 
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « Couma Guianenſis. (Tabula 392.)
 Ficus folio citrei auctiore, viridi. Bar. Franc, Equinox, p. 5 2,; 
 Arbor triginta-pedalis, &amp; ampliùs. Cortex craſſus, cinereus, ſucco lacteo turgens. Rami plures, recti &amp; undique ſparſi, in ſummitate trunci prodeunt. Ramusculi trigoni, nodoſi. Folia ad nodos terna, verticillata, rigida, glabra, integerrima, ovato-acuminata, ſupernè obſcurè viridia, infernè pallidiora, petiolata, petiolo brevi, deſuper canaliculato, ſubtùs convexo ; ſinguli ramuli tribus foliis terminantur, è quorum ſinu novi fiirculi innafcuntur, bini, terni aut quaterni.
